--- a/school/22_2_MATH342/homework/hw3.xlsx
+++ b/school/22_2_MATH342/homework/hw3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mattgraham93.github.io\school\22_2_MATH342\homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B866E14-926A-46E5-AEC4-7A7F67F17556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F152D361-572E-4BEA-8F87-EBC425313D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4455" yWindow="3420" windowWidth="12990" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="4680" windowWidth="15735" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ex_8.6" sheetId="1" r:id="rId1"/>
@@ -382,8 +382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,10 +416,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.3069999999999999</v>
+        <v>-0.307</v>
       </c>
       <c r="C2">
-        <v>2.294</v>
+        <v>-0.29399999999999998</v>
       </c>
       <c r="D2">
         <v>7.9000000000000001E-2</v>
@@ -428,10 +428,10 @@
         <v>1.9E-2</v>
       </c>
       <c r="F2">
-        <v>2.1360000000000001</v>
+        <v>-0.13600000000000001</v>
       </c>
       <c r="G2">
-        <v>2.3239999999999998</v>
+        <v>-0.32400000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -439,13 +439,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.1760000000000002</v>
+        <v>-0.17599999999999999</v>
       </c>
       <c r="C3">
         <v>0.125</v>
       </c>
       <c r="D3">
-        <v>2.0129999999999999</v>
+        <v>-1.2999999999999999E-2</v>
       </c>
       <c r="E3">
         <v>8.2000000000000003E-2</v>
@@ -465,13 +465,13 @@
         <v>0.13700000000000001</v>
       </c>
       <c r="C4">
-        <v>2.0630000000000002</v>
+        <v>-6.3E-2</v>
       </c>
       <c r="D4">
         <v>0.24</v>
       </c>
       <c r="E4">
-        <v>2.0499999999999998</v>
+        <v>-0.05</v>
       </c>
       <c r="F4">
         <v>0.318</v>
@@ -485,7 +485,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.0419999999999998</v>
+        <v>-4.2000000000000003E-2</v>
       </c>
       <c r="C5">
         <v>0.69</v>
@@ -513,7 +513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74785E5F-3580-4925-A3A1-E46558F6F17E}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
